--- a/Internshala_Jobs.xlsx
+++ b/Internshala_Jobs.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Job Link</t>
+          <t>JobURL</t>
         </is>
       </c>
     </row>
